--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479094.026759036</v>
+        <v>1508880.296955368</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484453</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6546603.972147203</v>
+        <v>6644859.459159709</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>43.51836022557372</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>320.0263124723764</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>136.0833407065051</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>35.0560030479866</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.104482075368528</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>287.0790000802538</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.89216428708345</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>254.6050071342409</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.1633729106734</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>12.95827676142962</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1430,10 +1430,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>146.9399060518603</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.2666242787488</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855464</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>403.9826071871452</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1771,10 +1771,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1813,7 +1813,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>23.92593778768368</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>170.662089447869</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>218.9887234481656</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2005,10 +2005,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>144.6367272133231</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,13 +2062,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>225.3056282927213</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629692</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2239,13 +2239,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>221.1303354389408</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>75.74046452697256</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556927</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>54.53682144529061</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225831</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3509,7 +3509,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3664,10 +3664,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>104.914109186465</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.4205716602397</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>166.3197703738371</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>163.5395542426754</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>129.0617197611543</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225779</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>1633.062660869835</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901424</v>
+        <v>1204.480986607104</v>
       </c>
       <c r="D2" t="n">
-        <v>489.3196557028934</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4367,13 +4367,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.2559470001092</v>
+        <v>768.2378595433871</v>
       </c>
       <c r="C4" t="n">
-        <v>209.2559470001092</v>
+        <v>630.7799396378264</v>
       </c>
       <c r="D4" t="n">
-        <v>209.2559470001092</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E4" t="n">
-        <v>209.2559470001092</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>209.2559470001092</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4522,16 +4522,16 @@
         <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>768.2378595433871</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.2559470001092</v>
+        <v>768.2378595433871</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>2477.071593970486</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>2038.92912115391</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1603.019336328354</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958568</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191207</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233699</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762198</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720793</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.49359000378</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.49359000378</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2519.49359000378</v>
       </c>
       <c r="W5" t="n">
-        <v>1407.204642120565</v>
+        <v>2518.678539455218</v>
       </c>
       <c r="X5" t="n">
-        <v>988.0621786998757</v>
+        <v>2503.576480074933</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>2499.33076041499</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326453</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993459</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>868.2688864592586</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>702.3908936607813</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>532.6328899115186</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>355.9258358732748</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253024</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S7" t="n">
-        <v>1630.419988293786</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T7" t="n">
-        <v>1630.419988293786</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="U7" t="n">
-        <v>1630.419988293786</v>
+        <v>2264.442554590778</v>
       </c>
       <c r="V7" t="n">
-        <v>1630.419988293786</v>
+        <v>1977.487046461209</v>
       </c>
       <c r="W7" t="n">
-        <v>1358.393583880077</v>
+        <v>1705.4606420475</v>
       </c>
       <c r="X7" t="n">
-        <v>1113.00182921349</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>1134.24202645431</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>729.3865718653431</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>310.2441084446538</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.03283704749686</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>983.6892855326716</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>711.6628811189632</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>466.2711264523757</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>238.851455766484</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693461</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693461</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263767</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097163</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055758</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.3006880091984</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>697.7389764924237</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>531.8609836939464</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>362.1029799446837</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>185.3959259064398</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955477</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471574</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2313.799635050029</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418843</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208978</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230861</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693461</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263767</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097163</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055758</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112633</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.46278304646</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457493</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1006.036133543734</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C16" t="n">
-        <v>833.474422026959</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D16" t="n">
-        <v>667.5964292284815</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.274422948613</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.854752262721</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181367</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.88298236479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539235</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.19845269753</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067378</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423116</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742891</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068559</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252396</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125434</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442451</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376277</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.75361278731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366621</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666275</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.755093412664</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493063</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818288</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132064</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924271</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.763516234775</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C19" t="n">
-        <v>839.2018047180002</v>
+        <v>845.1948155628796</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>679.3168227644023</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563213</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466959</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251582</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S19" t="n">
-        <v>2715.242958324171</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2469.363511902626</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U19" t="n">
-        <v>2190.930511155731</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.975003026162</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1676.393560306242</v>
+        <v>1454.966900465229</v>
       </c>
       <c r="X19" t="n">
-        <v>1431.001805639654</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.582134953762</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>838.9992856166233</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166233</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>673.121292818146</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1503.62932968809</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1258.237575021502</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1030.81790433561</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,43 +5996,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2758.053686176684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>831.0115848906036</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>665.1335920921263</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>495.3755883428635</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>318.6685343046197</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6409,10 +6409,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
         <v>2176.368833962455</v>
@@ -6464,19 +6464,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6926,46 +6926,46 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>475.2748675296863</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>475.2748675296863</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>475.2748675296863</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -7005,37 +7005,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477115</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309365</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324589</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>297.2507130099916</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>297.2507130099916</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>157.3485387003661</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
@@ -7099,7 +7099,7 @@
         <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962456</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419178</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066699</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,22 +7175,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.474012941002</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4628.783887774398</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785925</v>
@@ -7254,22 +7254,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>462.4859121333726</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>296.8946371592003</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,10 +7333,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601673</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033836</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834415</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410826</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981132</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814528</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773123</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526179</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710016</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583056</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900072</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833899</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244932</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824243</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123896</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050119</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319656</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481272</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143111</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909812</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571935</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271526</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778899</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396461</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654737</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558483</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305236</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952134</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.751608266349</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268252</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2012.101441268252</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213871</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168564</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351988</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874949</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397511</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.990664134033</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1237.596475687543</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940402</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940402</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940402</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510708</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344104</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302699</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055756</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239593</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112631</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429648</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363474</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774508</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353819</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653472</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649026</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111512</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111512</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1219.236799527848</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>1057.146432354974</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412712</v>
+        <v>884.5847208381994</v>
       </c>
       <c r="D46" t="n">
-        <v>608.7923094427938</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111512</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169405</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119685</v>
+        <v>2313.799635050026</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2035.366634303131</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>1248.965051073962</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558610882</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475283</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504395</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10112,22 +10112,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>376.7818457160674</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,7 +10841,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.2869303146736</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365287568</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11297,7 +11297,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>712.7331429833431</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>268.0111327346221</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.63380825304841</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.5921776627274</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>10.96843159933724</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>219.011899332238</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>54.48338453116378</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>178.3951296148032</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>23.42369649844701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.00051207685013</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>48.17580493063055</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>88.19489769745805</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>33.2365282877808</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>33.58904338006423</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.61600311981894</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>102.9863699957343</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>268.0111327346245</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>35.15749310933822</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>546132.833467995</v>
+        <v>558815.1558912703</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>546132.833467995</v>
+        <v>561098.635937196</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557615.9151899698</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557615.9151899701</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>565484.41806342</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581147.944008745</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>573279.4411352946</v>
+        <v>581147.9440087449</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557615.9151899697</v>
+        <v>581147.9440087448</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>428917.8559123269</v>
+      </c>
+      <c r="C2" t="n">
         <v>428917.8559123268</v>
-      </c>
-      <c r="C2" t="n">
-        <v>428917.8559123269</v>
       </c>
       <c r="D2" t="n">
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>404419.118377341</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773411</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.8654560112</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26347,13 +26347,13 @@
         <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>415779.3202312118</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
-        <v>404419.118377341</v>
+        <v>421486.0673098818</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501577</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998315</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104285095</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996304</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387722</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622623</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924764</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804608</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804609</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="G4" t="n">
-        <v>79244.55236275087</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904283</v>
@@ -26439,25 +26439,25 @@
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>80336.91334433804</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="P4" t="n">
-        <v>78141.89423804605</v>
+        <v>81439.57146904276</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024209</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319792</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764749</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21340.7942735278</v>
+        <v>21340.79427352787</v>
       </c>
       <c r="C6" t="n">
-        <v>163532.0949332378</v>
+        <v>118901.1084168321</v>
       </c>
       <c r="D6" t="n">
-        <v>163532.0949332377</v>
+        <v>177914.6475410276</v>
       </c>
       <c r="E6" t="n">
-        <v>18402.85983961012</v>
+        <v>79949.92367461417</v>
       </c>
       <c r="F6" t="n">
-        <v>252757.8818616475</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="G6" t="n">
-        <v>249628.7572501673</v>
+        <v>262305.0328956638</v>
       </c>
       <c r="H6" t="n">
-        <v>249925.5022550835</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="I6" t="n">
-        <v>262328.2572350466</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="J6" t="n">
-        <v>151313.7918900563</v>
+        <v>151290.5675506738</v>
       </c>
       <c r="K6" t="n">
-        <v>262328.2572350465</v>
+        <v>209259.1782568918</v>
       </c>
       <c r="L6" t="n">
-        <v>262328.2572350465</v>
+        <v>252912.7311690413</v>
       </c>
       <c r="M6" t="n">
-        <v>66727.07795197883</v>
+        <v>110104.8619576762</v>
       </c>
       <c r="N6" t="n">
-        <v>262328.2572350466</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="O6" t="n">
-        <v>259128.1708036758</v>
+        <v>262305.0328956639</v>
       </c>
       <c r="P6" t="n">
-        <v>252757.8818616475</v>
+        <v>262305.0328956639</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.29185526714</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631545</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.108974848358</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320047</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760556</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320047</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760556</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>378.518214554485</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>111.5243745049235</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,25 +27537,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>34.75275369510217</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.879359176444</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>215.7620727803232</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>112.7567907278998</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>21.0436636051848</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>193.3230123105436</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>271.0398895526697</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>157.8778176401777</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28150,10 +28150,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.987969261323623e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.072674516261282e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-5.220349312471573e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558610882</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475283</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645568</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504395</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.434224008042</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645577</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935617</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,22 +36832,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>376.7818457160674</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,25 +37543,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.2869303146736</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365287568</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>712.7331429833431</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328639</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955953</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512945</v>
